--- a/MissingAsError/Master_Statistics_MissingAsError.xlsx
+++ b/MissingAsError/Master_Statistics_MissingAsError.xlsx
@@ -9,18 +9,22 @@
     <sheet name="Summary_RT_Modality" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Speed_Accuracy_Tradeoff" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="T_Test_Congruency" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ANOVA_Image" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Image_Means" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ANOVA_Text" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Text_Means" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Chi_Square_Table" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Chi_Square_Test" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="GPower_Congruency" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GPower_Reference_N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="IAT_Dscore" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="IAT_Dscore_Modality" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ANOVA_Image" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Image_Means" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ANOVA_Text" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Text_Means" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Chi_Square_Table" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Chi_Square_Test" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">Modality</t>
   </si>
@@ -109,6 +113,108 @@
     <t xml:space="preserve">two.sided</t>
   </si>
   <si>
+    <t xml:space="preserve">Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test family / Statistical test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t tests / Matched pairs (paired t)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tail(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-tailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α (sig.level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N (pairs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observed effect size (Cohen's d_z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56225007977958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achieved power (given N, d_z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163256346149725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required N for target power (given d_z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum detectable d_z (given N, target power)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68199903820025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EffectSize_dz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required_N_pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_cong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_incong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_cong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_incong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Effect</t>
   </si>
   <si>
@@ -149,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">Straight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">Valence</t>
@@ -553,13 +662,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="D2" t="n">
-        <v>0.842</v>
+        <v>0.855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.187</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="3">
@@ -570,13 +679,526 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="D3" t="n">
-        <v>0.979</v>
+        <v>0.982</v>
       </c>
       <c r="E3" t="n">
-        <v>0.216</v>
+        <v>0.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.366</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.084</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.945707491326806</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.221246248032088</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.961503313003341</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.163437712814092</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.930017632653859</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.192713522905125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.849237697508215</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.135970640096379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.924598350012093</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0957588020134469</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.779335566668306</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0378545002264144</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.05524876232899</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0838240026330541</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.02508384931639</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.157044393569483</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.00998434699781</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0534896052062966</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.08327713199425</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.137418211172953</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.06183928000391</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.151354296165527</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.0122491116684</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.224359185153385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>256</v>
+      </c>
+      <c r="B2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>269</v>
+      </c>
+      <c r="B3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.19428571428571</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.138523409728315</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -615,22 +1237,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.591699487572106</v>
+        <v>-0.524698444567087</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.27128030783045</v>
+        <v>-1.06756372342825</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.293244473349567</v>
+        <v>0.363997483376592</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.968416870551945</v>
+        <v>-0.961748554388176</v>
       </c>
       <c r="F2" t="n">
-        <v>0.607927161955441</v>
+        <v>0.665767716590167</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +1312,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0734046036818771</v>
+        <v>-0.0736059733597025</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -708,19 +1330,19 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.33480871704524</v>
+        <v>-1.25722939874182</v>
       </c>
       <c r="H2" t="n">
-        <v>0.253</v>
+        <v>0.277</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.226088542578138</v>
+        <v>-0.236156216499405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0792793352143838</v>
+        <v>0.0889442697800002</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
@@ -750,89 +1372,77 @@
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.787</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.006</v>
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.000747</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0000234</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.002</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -851,72 +1461,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.844864449847955</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.135140969510077</v>
+      <c r="A2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.834642117895704</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.174695578538515</v>
+      <c r="A3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.853388519549943</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.103552192441099</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.861359013339234</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0912609872326588</v>
+      <c r="A4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -935,186 +1507,140 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.810333223726948</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1.0625151310389</v>
       </c>
       <c r="D2" t="n">
-        <v>9.243</v>
+        <v>0.273768078882709</v>
       </c>
       <c r="E2" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
+        <v>59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58</v>
       </c>
       <c r="G2" t="n">
-        <v>0.341</v>
+        <v>0.921151612493135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.894605328334728</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1.06576684736892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.275</v>
+        <v>0.237430294473415</v>
       </c>
       <c r="E3" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000357</v>
+        <v>0.720891659650259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1.02619618103169</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>0.977377644064639</v>
       </c>
       <c r="D4" t="n">
-        <v>2.785</v>
+        <v>0.305083494204631</v>
       </c>
       <c r="E4" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>59</v>
       </c>
       <c r="G4" t="n">
-        <v>0.053</v>
+        <v>-0.160016972056533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.769393955009291</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0.889527325430033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227</v>
+        <v>0.237565934160109</v>
       </c>
       <c r="E5" t="n">
-        <v>0.666</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009</v>
+        <v>0.505684330733113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1.14159591840274</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>0.971262370590486</v>
       </c>
       <c r="D6" t="n">
-        <v>2.72</v>
+        <v>0.275588971075583</v>
       </c>
       <c r="E6" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="F6" t="n">
+        <v>51</v>
       </c>
       <c r="G6" t="n">
-        <v>0.093</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.005</v>
+        <v>-0.618070988644665</v>
       </c>
     </row>
   </sheetData>
@@ -1133,223 +1659,288 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.751538819994312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.962021804985125</v>
+        <v>0.897430975869266</v>
       </c>
       <c r="E2" t="n">
-        <v>0.243681384665007</v>
+        <v>0.141815395720373</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.02874695045536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.871155020691743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.894699701678473</v>
+        <v>1.22759928620854</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0745485253408221</v>
+        <v>0.325307990809185</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.09571321820335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.86152382666672</v>
       </c>
       <c r="D4" t="n">
-        <v>0.90916455798666</v>
+        <v>0.946211434481264</v>
       </c>
       <c r="E4" t="n">
-        <v>0.153471618162063</v>
+        <v>0.173895645198179</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.487002464714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.927686830002737</v>
       </c>
       <c r="D5" t="n">
-        <v>0.852501893758017</v>
+        <v>1.18959209643113</v>
       </c>
       <c r="E5" t="n">
-        <v>0.139482067393224</v>
+        <v>0.268809340229173</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.974316094095195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.89273327333193</v>
       </c>
       <c r="D6" t="n">
-        <v>0.924598350012093</v>
+        <v>0.916361713335694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0957588020134469</v>
+        <v>0.192159592486444</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.122962583850356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.16919215356715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.785065564586451</v>
+        <v>1.04049757240493</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0329906770107552</v>
+        <v>0.364953205283712</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.352633102817048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.68726231000231</v>
       </c>
       <c r="D8" t="n">
-        <v>1.06673080332694</v>
+        <v>0.744932516675908</v>
       </c>
       <c r="E8" t="n">
-        <v>0.133482509912106</v>
+        <v>0.0937595990880575</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.615085892372851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.851525600016272</v>
       </c>
       <c r="D9" t="n">
-        <v>1.01874121898397</v>
+        <v>1.03910816207223</v>
       </c>
       <c r="E9" t="n">
-        <v>0.184851157763583</v>
+        <v>0.28160794019923</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>29</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.666112475107229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.05369186537036</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.850169188472836</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.226733667108046</v>
+      </c>
+      <c r="F10" t="n">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.02792051000676</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.104166401729621</v>
+      <c r="G10" t="n">
+        <v>26</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.897628832512715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.33205469997289</v>
       </c>
       <c r="D11" t="n">
-        <v>1.05864136166638</v>
+        <v>1.09719927999284</v>
       </c>
       <c r="E11" t="n">
-        <v>0.152653615472666</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.04549553999774</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.171563090711984</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.0178917366633</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.215164803766427</v>
+        <v>0.288756293212233</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.813334377469083</v>
       </c>
     </row>
   </sheetData>
@@ -1368,26 +1959,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>214</v>
+      <c r="A2" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.015</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>223</v>
+      <c r="A3" t="s">
+        <v>71</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.005</v>
       </c>
     </row>
   </sheetData>
@@ -1406,30 +2065,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.16232610511787</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.280983648599035</v>
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
+        <v>0.849637595932946</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.129438735434679</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.842948193744295</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.153493510206038</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.861137966158836</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.10098186280114</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.885370800839155</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0937401051905378</v>
       </c>
     </row>
   </sheetData>
